--- a/sputnik/personal/uch/uch93.xlsx
+++ b/sputnik/personal/uch/uch93.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>Оплачено</t>
   </si>
@@ -24,9 +24,6 @@
     <t xml:space="preserve">Начислено </t>
   </si>
   <si>
-    <t>Наименование</t>
-  </si>
-  <si>
     <t>Начислен членский взнос 2018/2019 (с 01.05.2018 по 30.04.2019)</t>
   </si>
   <si>
@@ -64,6 +61,12 @@
   </si>
   <si>
     <t>Начислены пени за просрочку оплаты взноса 2018 на 448 к.д.</t>
+  </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Наименование / садовый участок №93</t>
   </si>
 </sst>
 </file>
@@ -204,7 +207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -258,19 +261,25 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -579,10 +588,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A18"/>
+      <selection activeCell="A19" sqref="A19:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -594,150 +603,141 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24">
-        <v>43221</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="8">
-        <v>40608.85</v>
-      </c>
-      <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24">
         <v>43221</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="15">
-        <v>10807.93</v>
-      </c>
-      <c r="D3" s="6"/>
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="8">
+        <v>40608.85</v>
+      </c>
+      <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="24">
         <v>43221</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C4" s="15">
-        <v>719.25</v>
+        <v>10807.93</v>
       </c>
       <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="24">
+        <v>43221</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="15">
+        <v>719.25</v>
+      </c>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="24">
         <v>43274</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6">
+      <c r="B6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6">
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25">
+    <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="25">
         <v>43274</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="13">
-        <f>PRODUCT(D5,0.001,265)</f>
+      <c r="B7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13">
+        <f>PRODUCT(D6,0.001,265)</f>
         <v>265</v>
       </c>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="26">
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="26">
         <v>43323</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6">
+      <c r="B8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6">
         <v>2000</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25">
+    <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="25">
         <v>43323</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B9" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="13">
+        <f>PRODUCT(D8,0.001,315)</f>
+        <v>630</v>
+      </c>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="26">
+        <v>43466</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="13">
-        <f>PRODUCT(D7,0.001,315)</f>
-        <v>630</v>
-      </c>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="26">
-        <v>43466</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="7">
+      <c r="C10" s="7">
         <v>920.64</v>
       </c>
-      <c r="D9" s="7"/>
-    </row>
-    <row r="10" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="27">
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="27">
         <v>43586</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="11">
+      <c r="B11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="11">
         <v>10654.49</v>
       </c>
-      <c r="D10" s="9"/>
-    </row>
-    <row r="11" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="24">
-        <v>43755</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10">
-        <v>6618.77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="24">
         <v>43755</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>13</v>
+      <c r="B12" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10">
-        <v>537.04</v>
+        <v>6618.77</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -745,78 +745,84 @@
         <v>43755</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10">
+        <v>537.04</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="24">
+        <v>43755</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10">
         <v>546.63</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="28">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="28">
         <v>43755</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="19">
+      <c r="B15" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="19">
         <v>5746.02</v>
       </c>
-      <c r="D14" s="10"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="27">
-        <v>43794</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="18">
-        <v>4000</v>
-      </c>
+      <c r="D15" s="10"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="27">
         <v>43794</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="20">
+      <c r="B16" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="17"/>
+      <c r="D16" s="18">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="29">
+        <v>43794</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="20">
         <v>1680</v>
       </c>
-      <c r="D16" s="10"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="27">
-        <v>43822</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="21">
-        <v>5000</v>
-      </c>
+      <c r="D17" s="10"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="27">
         <v>43822</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="13">
-        <f>PRODUCT(D17,0.001,448)</f>
+      <c r="B18" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="21">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="29">
+        <v>43822</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="13">
+        <f>PRODUCT(D18,0.001,448)</f>
         <v>2240</v>
       </c>
-      <c r="D18" s="10"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
       <c r="D19" s="10"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -825,10 +831,13 @@
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
     </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/sputnik/personal/uch/uch93.xlsx
+++ b/sputnik/personal/uch/uch93.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>Оплачено</t>
   </si>
@@ -30,9 +30,6 @@
     <t>Оплата членского взноса 2017/2018</t>
   </si>
   <si>
-    <t>Задолженность по оплате за уч№93 на 01.05.2018 (10702,44 +29906,41)</t>
-  </si>
-  <si>
     <t>Начислены пени за просрочку оплаты взноса 2017 на 265 к.д.</t>
   </si>
   <si>
@@ -67,6 +64,34 @@
   </si>
   <si>
     <t>Наименование / садовый участок №93</t>
+  </si>
+  <si>
+    <r>
+      <t>Задолженность по оплате за уч№93 на 01.05.2018 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>10702,44</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> +29906,41)</t>
+    </r>
+  </si>
+  <si>
+    <t>Оплачена компенсация арендной платы за зем.участок за 2018</t>
   </si>
 </sst>
 </file>
@@ -104,7 +129,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -129,6 +154,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -207,7 +238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -249,7 +280,6 @@
     <xf numFmtId="14" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -281,6 +311,18 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -588,10 +630,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:B19"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -605,11 +647,11 @@
   <sheetData>
     <row r="1" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>15</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -619,11 +661,11 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24">
+      <c r="A3" s="23">
         <v>43221</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C3" s="8">
         <v>40608.85</v>
@@ -631,7 +673,7 @@
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24">
+      <c r="A4" s="23">
         <v>43221</v>
       </c>
       <c r="B4" s="14" t="s">
@@ -643,11 +685,11 @@
       <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24">
+      <c r="A5" s="23">
         <v>43221</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="15">
         <v>719.25</v>
@@ -655,169 +697,169 @@
       <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24">
+      <c r="A6" s="23">
         <v>43274</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="6"/>
-      <c r="D6" s="6">
+      <c r="D6" s="30">
         <v>1000</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25">
+      <c r="A7" s="24">
         <v>43274</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="13">
         <f>PRODUCT(D6,0.001,265)</f>
         <v>265</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="30"/>
     </row>
     <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="26">
+      <c r="A8" s="25">
         <v>43323</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="6"/>
-      <c r="D8" s="6">
+      <c r="D8" s="30">
         <v>2000</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25">
+      <c r="A9" s="24">
         <v>43323</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="13">
         <f>PRODUCT(D8,0.001,315)</f>
         <v>630</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="30"/>
     </row>
     <row r="10" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="26">
+      <c r="A10" s="25">
         <v>43466</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="7">
         <v>920.64</v>
       </c>
-      <c r="D10" s="7"/>
+      <c r="D10" s="31"/>
     </row>
     <row r="11" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27">
+      <c r="A11" s="26">
         <v>43586</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="11">
         <v>10654.49</v>
       </c>
-      <c r="D11" s="9"/>
+      <c r="D11" s="32"/>
     </row>
     <row r="12" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="24">
+      <c r="A12" s="23">
         <v>43755</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="10">
+      <c r="D12" s="33">
         <v>6618.77</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="24">
+      <c r="A13" s="23">
         <v>43755</v>
       </c>
       <c r="B13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="33">
+        <v>537.04</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="23">
+        <v>43755</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10">
-        <v>537.04</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="24">
+      <c r="C14" s="10"/>
+      <c r="D14" s="33">
+        <v>546.63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="27">
         <v>43755</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B15" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="18">
+        <v>5746.02</v>
+      </c>
+      <c r="D15" s="10"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="26">
+        <v>43794</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="37"/>
+      <c r="D16" s="17">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="28">
+        <v>43794</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="19">
+        <v>1680</v>
+      </c>
+      <c r="D17" s="10"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="26">
+        <v>43822</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="20">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="28">
+        <v>43822</v>
+      </c>
+      <c r="B19" s="29" t="s">
         <v>13</v>
-      </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10">
-        <v>546.63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="28">
-        <v>43755</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="19">
-        <v>5746.02</v>
-      </c>
-      <c r="D15" s="10"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="27">
-        <v>43794</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="18">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="29">
-        <v>43794</v>
-      </c>
-      <c r="B17" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="20">
-        <v>1680</v>
-      </c>
-      <c r="D17" s="10"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="27">
-        <v>43822</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="21">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="29">
-        <v>43822</v>
-      </c>
-      <c r="B19" s="30" t="s">
-        <v>14</v>
       </c>
       <c r="C19" s="13">
         <f>PRODUCT(D18,0.001,448)</f>
@@ -825,17 +867,30 @@
       </c>
       <c r="D19" s="10"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="34">
+        <v>43920</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>9</v>
+      </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
+      <c r="D20" s="36">
+        <v>1807.93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="34">
+        <v>43920</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>17</v>
+      </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
+      <c r="D21" s="36">
+        <v>719.25</v>
+      </c>
+      <c r="F21" s="35"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch93.xlsx
+++ b/sputnik/personal/uch/uch93.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>Оплачено</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>Оплачена компенсация арендной платы за зем.участок за 2018</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
   </si>
 </sst>
 </file>
@@ -238,7 +241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -323,6 +326,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -630,10 +634,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -891,6 +895,17 @@
         <v>719.25</v>
       </c>
       <c r="F21" s="35"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="38">
+        <v>43952</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="1">
+        <v>12447.82</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch93.xlsx
+++ b/sputnik/personal/uch/uch93.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>Оплачено</t>
   </si>
@@ -95,6 +95,21 @@
   </si>
   <si>
     <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
+  </si>
+  <si>
+    <t>оплачена Компенсация арендной платы за зем.участок за 2019</t>
+  </si>
+  <si>
+    <t>Оплата членского взноса 2019/2020</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2021/2022 (с 01.05.2021 по 30.04.2022)</t>
+  </si>
+  <si>
+    <t>Оплачен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
+  </si>
+  <si>
+    <t>Начислена арендная плата 2021</t>
   </si>
 </sst>
 </file>
@@ -132,7 +147,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -163,6 +178,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -241,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -259,15 +280,10 @@
     <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -326,7 +342,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -634,10 +665,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -651,10 +682,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -665,247 +696,314 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23">
+      <c r="A3" s="20">
         <v>43221</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>40608.85</v>
       </c>
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="23">
+      <c r="A4" s="20">
         <v>43221</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="12">
         <v>10807.93</v>
       </c>
       <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23">
+      <c r="A5" s="20">
         <v>43221</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="12">
         <v>719.25</v>
       </c>
       <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23">
+      <c r="A6" s="20">
         <v>43274</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="6"/>
-      <c r="D6" s="30">
+      <c r="D6" s="27">
         <v>1000</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24">
+      <c r="A7" s="21">
         <v>43274</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="10">
         <f>PRODUCT(D6,0.001,265)</f>
         <v>265</v>
       </c>
-      <c r="D7" s="30"/>
+      <c r="D7" s="27"/>
     </row>
     <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25">
+      <c r="A8" s="22">
         <v>43323</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="6"/>
-      <c r="D8" s="30">
+      <c r="D8" s="27">
         <v>2000</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24">
+      <c r="A9" s="21">
         <v>43323</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="10">
         <f>PRODUCT(D8,0.001,315)</f>
         <v>630</v>
       </c>
-      <c r="D9" s="30"/>
+      <c r="D9" s="27"/>
     </row>
     <row r="10" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25">
+      <c r="A10" s="36">
         <v>43466</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="37">
         <v>920.64</v>
       </c>
-      <c r="D10" s="31"/>
+      <c r="D10" s="28"/>
     </row>
     <row r="11" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="26">
+      <c r="A11" s="38">
         <v>43586</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="40">
         <v>10654.49</v>
       </c>
-      <c r="D11" s="32"/>
+      <c r="D11" s="29"/>
     </row>
     <row r="12" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23">
+      <c r="A12" s="20">
         <v>43755</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="33">
+      <c r="C12" s="8"/>
+      <c r="D12" s="30">
         <v>6618.77</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="23">
+      <c r="A13" s="20">
         <v>43755</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="33">
+      <c r="C13" s="8"/>
+      <c r="D13" s="30">
         <v>537.04</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="23">
+      <c r="A14" s="20">
         <v>43755</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="33">
+      <c r="C14" s="8"/>
+      <c r="D14" s="30">
         <v>546.63</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="27">
+      <c r="A15" s="24">
         <v>43755</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="15">
         <v>5746.02</v>
       </c>
-      <c r="D15" s="10"/>
+      <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="26">
+      <c r="A16" s="23">
         <v>43794</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="17">
+      <c r="C16" s="34"/>
+      <c r="D16" s="14">
         <v>4000</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="28">
+      <c r="A17" s="25">
         <v>43794</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="16">
         <v>1680</v>
       </c>
-      <c r="D17" s="10"/>
+      <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="26">
+      <c r="A18" s="23">
         <v>43822</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="20">
+      <c r="C18" s="8"/>
+      <c r="D18" s="17">
         <v>5000</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="28">
+      <c r="A19" s="25">
         <v>43822</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="10">
         <f>PRODUCT(D18,0.001,448)</f>
         <v>2240</v>
       </c>
-      <c r="D19" s="10"/>
+      <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="34">
+      <c r="A20" s="31">
         <v>43920</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="36">
+      <c r="C20" s="8"/>
+      <c r="D20" s="33">
         <v>1807.93</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="34">
+      <c r="A21" s="31">
         <v>43920</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="36">
+      <c r="C21" s="8"/>
+      <c r="D21" s="33">
         <v>719.25</v>
       </c>
-      <c r="F21" s="35"/>
+      <c r="F21" s="32"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="38">
+      <c r="A22" s="31">
         <v>43952</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="8">
         <v>12447.82</v>
       </c>
+      <c r="D22" s="8"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="41">
+        <v>44342</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42">
+        <v>920.64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="41">
+        <v>44342</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42">
+        <v>10654.49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="31">
+        <v>44317</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="8">
+        <v>12783.47</v>
+      </c>
+      <c r="D25" s="8"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="31">
+        <v>44317</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="8">
+        <v>472.98</v>
+      </c>
+      <c r="D26" s="8"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="31">
+        <v>44363</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8">
+        <v>11987.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch93.xlsx
+++ b/sputnik/personal/uch/uch93.xlsx
@@ -262,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -358,6 +358,7 @@
     <xf numFmtId="4" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -667,8 +668,8 @@
   </sheetPr>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1002,13 +1003,19 @@
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
+      <c r="C28" s="43">
+        <f>SUM(C3:C27)</f>
+        <v>99976.45</v>
+      </c>
+      <c r="D28" s="43">
+        <f>SUM(D3:D27)</f>
+        <v>45792.25</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
